--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/108.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/108.xlsx
@@ -479,13 +479,13 @@
         <v>2.896770622501111</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.64620515214841</v>
+        <v>-21.52881520826691</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1582521285712345</v>
+        <v>-0.01008126686351411</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.834112868766031</v>
+        <v>-8.839314772072427</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>2.761375446099124</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.79978352485881</v>
+        <v>-21.67864371271039</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03507360055931235</v>
+        <v>-0.1354794039930156</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.26192795009664</v>
+        <v>-8.31379542394774</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>2.635561193436076</v>
       </c>
       <c r="E4" t="n">
-        <v>-22.02304491244335</v>
+        <v>-21.92515721695397</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1143295602867416</v>
+        <v>-0.273300507571348</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.140573021646077</v>
+        <v>-8.18907685877274</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>2.548362410740949</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.05899377993577</v>
+        <v>-22.0018901797302</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09578555724053316</v>
+        <v>-0.2821789440416655</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.672069271603351</v>
+        <v>-7.729231539891321</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>2.514057455702678</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.02716634523215</v>
+        <v>-21.97354371791583</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2279158568257765</v>
+        <v>-0.4196089270706447</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.857052270861161</v>
+        <v>-6.977312061773535</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>2.550834575753282</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.27638347027315</v>
+        <v>-22.22587025132418</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3568585239337914</v>
+        <v>-0.5149836730304216</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.216157249684148</v>
+        <v>-6.389956554796107</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>2.677221271608937</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.68535867270431</v>
+        <v>-22.60591231111695</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5354637227959282</v>
+        <v>-0.6836006308634512</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.817991641435728</v>
+        <v>-5.984985448988941</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>2.90223391513858</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.85499254396566</v>
+        <v>-22.84476963060694</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6962973816968293</v>
+        <v>-0.8155011471259496</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.518099960219165</v>
+        <v>-5.70822854826662</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>3.237125083974148</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.30888305248318</v>
+        <v>-23.31684235566252</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7914227883063935</v>
+        <v>-0.9071455808462703</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.269616186208212</v>
+        <v>-5.442520803063527</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>3.682139534053479</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75029681547633</v>
+        <v>-23.763497134017</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.047856087482949</v>
+        <v>-1.147498936437543</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.952872098321394</v>
+        <v>-5.121200604749276</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>4.223654422334866</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.25675392582691</v>
+        <v>-24.23932950535323</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9883519849057276</v>
+        <v>-1.087290816871485</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.787863227556147</v>
+        <v>-4.953996569900784</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>4.844186197953349</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.88054231197659</v>
+        <v>-24.85655684428751</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9204583465448797</v>
+        <v>-1.01983718912866</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.713408541979899</v>
+        <v>-4.847567779414913</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>5.510710387303045</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.46424573082443</v>
+        <v>-25.43755664233795</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8100841275174078</v>
+        <v>-0.9093407449295151</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.608705570918049</v>
+        <v>-4.728808913610681</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.186465598143491</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.10560031864694</v>
+        <v>-26.08295443883939</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7880640405888228</v>
+        <v>-0.8922341099021797</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.579356862695959</v>
+        <v>-4.689364406208412</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>6.835861888274566</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.83855533912796</v>
+        <v>-26.82941534079026</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7080847772529613</v>
+        <v>-0.8138828858530007</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.480965599499295</v>
+        <v>-4.595084797786824</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.418356945194158</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.68137367741886</v>
+        <v>-27.64230317904191</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6215542447154336</v>
+        <v>-0.7175303385198409</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.527973400524682</v>
+        <v>-4.623646375903341</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>7.911013147284759</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.47981694488221</v>
+        <v>-28.47122207081017</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.498634834067458</v>
+        <v>-0.5720677172085205</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.7081626376117</v>
+        <v>-4.817436830094116</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>8.297375542155931</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17779601023732</v>
+        <v>-29.1688882397258</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2174827161717801</v>
+        <v>-0.2935409960003759</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.890620373884966</v>
+        <v>-5.045401442284626</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>8.56858020685875</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.62751864040079</v>
+        <v>-29.60104222371302</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04822529843918454</v>
+        <v>-0.1137917695313809</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.197542446976152</v>
+        <v>-5.354152003944039</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>8.73087927525375</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.25672649066245</v>
+        <v>-30.21736509637692</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4136391802782706</v>
+        <v>0.3328287857750334</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.490511294469163</v>
+        <v>-5.628591515411443</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>8.794010530463293</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.77065400350568</v>
+        <v>-30.74315578438272</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4244145514129511</v>
+        <v>0.3536363990006234</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.727481457308531</v>
+        <v>-5.902630128315759</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>8.772811877732888</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.12388719414372</v>
+        <v>-31.10430183263486</v>
       </c>
       <c r="F23" t="n">
-        <v>0.686142645026376</v>
+        <v>0.6248100538809279</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.023193037653882</v>
+        <v>-6.205210763309125</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>8.686998714727682</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.33406071034553</v>
+        <v>-31.32368623777393</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9235674855043666</v>
+        <v>0.8456269380320085</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.214152756868713</v>
+        <v>-6.421510205115176</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>8.550268413056372</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.5889686393796</v>
+        <v>-31.60531503383913</v>
       </c>
       <c r="F25" t="n">
-        <v>1.155589973394416</v>
+        <v>1.065715360159919</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.274712884929188</v>
+        <v>-6.456471493220485</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>8.377121401459865</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.46825172632517</v>
+        <v>-31.4949432593151</v>
       </c>
       <c r="F26" t="n">
-        <v>1.220022194893488</v>
+        <v>1.105154978555322</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.388372516571227</v>
+        <v>-6.572600073330316</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>8.180850565096797</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.53153747571395</v>
+        <v>-31.5784841641535</v>
       </c>
       <c r="F27" t="n">
-        <v>1.42511603296057</v>
+        <v>1.347517715968896</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.686601935453039</v>
+        <v>-6.871029941493672</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>7.966305391246137</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.38459348532196</v>
+        <v>-31.40846650585311</v>
       </c>
       <c r="F28" t="n">
-        <v>1.586653708850307</v>
+        <v>1.493425236905106</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.765109607721959</v>
+        <v>-7.003673586799941</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>7.735020346377887</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.18366019209862</v>
+        <v>-31.22306069843909</v>
       </c>
       <c r="F29" t="n">
-        <v>1.584077202231443</v>
+        <v>1.517743157061141</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.072559693554773</v>
+        <v>-7.279511354231282</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>7.49060250169622</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.00330717328156</v>
+        <v>-31.07066790989392</v>
       </c>
       <c r="F30" t="n">
-        <v>1.688232604524199</v>
+        <v>1.625076413817392</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.149634886811686</v>
+        <v>-7.310140982252504</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>7.22738082977747</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.72265862309318</v>
+        <v>-30.79961648018529</v>
       </c>
       <c r="F31" t="n">
-        <v>1.6534619876867</v>
+        <v>1.572866709485607</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.140023099311332</v>
+        <v>-7.304455067266282</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.943077846238042</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.34485328394202</v>
+        <v>-30.404733840048</v>
       </c>
       <c r="F32" t="n">
-        <v>1.594040998226216</v>
+        <v>1.524157534070533</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.214996019615472</v>
+        <v>-7.335998939571617</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.634529461294213</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.82094730808342</v>
+        <v>-29.89004853114039</v>
       </c>
       <c r="F33" t="n">
-        <v>1.60154562376693</v>
+        <v>1.498925369630385</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.519894043863756</v>
+        <v>-7.598929728874303</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.294390361343302</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.16192873845075</v>
+        <v>-29.28219097386656</v>
       </c>
       <c r="F34" t="n">
-        <v>1.606190180290499</v>
+        <v>1.497947568257002</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.471047976256409</v>
+        <v>-7.579970160244407</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.925634380366099</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.72573643479146</v>
+        <v>-28.83950606908801</v>
       </c>
       <c r="F35" t="n">
-        <v>1.638266954344328</v>
+        <v>1.519928543130652</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.545131097310771</v>
+        <v>-7.600943999703472</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.527290502577506</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.09620591007659</v>
+        <v>-28.21132979927528</v>
       </c>
       <c r="F36" t="n">
-        <v>1.512463029644873</v>
+        <v>1.41730339998724</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.491914257564402</v>
+        <v>-7.503936325450145</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.097532788503731</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.37963150710317</v>
+        <v>-27.54423214579503</v>
       </c>
       <c r="F37" t="n">
-        <v>1.648704984005192</v>
+        <v>1.537274739494466</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.428699398775191</v>
+        <v>-7.435216444928789</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.64617130158573</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.90065305984808</v>
+        <v>-27.0231960169673</v>
       </c>
       <c r="F38" t="n">
-        <v>1.495771960201225</v>
+        <v>1.400211431980506</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.378753304622789</v>
+        <v>-7.399174686305892</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.173584012389733</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.15295035015301</v>
+        <v>-26.28144811763613</v>
       </c>
       <c r="F39" t="n">
-        <v>1.544138905135615</v>
+        <v>1.452641141621302</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.383300081009019</v>
+        <v>-7.390369584938578</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.686207561629493</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.48550802168865</v>
+        <v>-25.62018549385155</v>
       </c>
       <c r="F40" t="n">
-        <v>1.615361957172832</v>
+        <v>1.497043101986623</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.11432159021196</v>
+        <v>-7.095762920145151</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.192884394651925</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.96835865332012</v>
+        <v>-25.07840041988064</v>
       </c>
       <c r="F41" t="n">
-        <v>1.619287829686964</v>
+        <v>1.512067020088653</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.1518789409636</v>
+        <v>-7.128641491325154</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.693729371183652</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.25673436979945</v>
+        <v>-24.36265959257803</v>
       </c>
       <c r="F42" t="n">
-        <v>1.657236300987958</v>
+        <v>1.525047333320312</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.869959248989817</v>
+        <v>-6.848447618775391</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.198797752389185</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.56765818594899</v>
+        <v>-23.6585497126118</v>
       </c>
       <c r="F43" t="n">
-        <v>1.591968059314644</v>
+        <v>1.47571725403314</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.899772412864264</v>
+        <v>-6.852632608653471</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.711822166479998</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.85683569955449</v>
+        <v>-22.96861306355277</v>
       </c>
       <c r="F44" t="n">
-        <v>1.692530041560217</v>
+        <v>1.588922208036556</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.772848905592285</v>
+        <v>-6.745573136281767</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.231924563604945</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.06248453083875</v>
+        <v>-22.15798639097707</v>
       </c>
       <c r="F45" t="n">
-        <v>1.722186757214923</v>
+        <v>1.635861562965806</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.695255477607478</v>
+        <v>-6.646629415309142</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7673854030325238</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.56662678737563</v>
+        <v>-21.65246796994493</v>
       </c>
       <c r="F46" t="n">
-        <v>1.733260357768486</v>
+        <v>1.640237224111695</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.533072452811308</v>
+        <v>-6.499558310738607</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3155697503240983</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.91654043328882</v>
+        <v>-20.98658523467111</v>
       </c>
       <c r="F47" t="n">
-        <v>1.80417051336622</v>
+        <v>1.715826159281067</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.530667061432786</v>
+        <v>-6.472556325812636</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1222187791619875</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.27698011098648</v>
+        <v>-20.34945963778849</v>
       </c>
       <c r="F48" t="n">
-        <v>1.840534946442334</v>
+        <v>1.749491860566643</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.495857332540352</v>
+        <v>-6.435947442393176</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.5416844795588902</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.5542431148573</v>
+        <v>-19.60708839008179</v>
       </c>
       <c r="F49" t="n">
-        <v>1.976092439841284</v>
+        <v>1.903329350640989</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.185869852143609</v>
+        <v>-6.168435653656191</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.9467214988844344</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.17248990266112</v>
+        <v>-19.22236266171052</v>
       </c>
       <c r="F50" t="n">
-        <v>1.977466250770887</v>
+        <v>1.916871899662344</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.180746172947083</v>
+        <v>-6.158051403070863</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.331818961195046</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.60983854738221</v>
+        <v>-18.63432758277859</v>
       </c>
       <c r="F51" t="n">
-        <v>1.955015931238014</v>
+        <v>1.882683074642007</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.209904209901364</v>
+        <v>-6.192421121345276</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.6938502999772</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.04333465469217</v>
+        <v>-18.09680083378876</v>
       </c>
       <c r="F52" t="n">
-        <v>1.985704227341639</v>
+        <v>1.909000598606611</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.251768775702756</v>
+        <v>-6.213438961866143</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.031113799675002</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.71339024826468</v>
+        <v>-17.715546300293</v>
       </c>
       <c r="F53" t="n">
-        <v>2.063718109917001</v>
+        <v>2.003749551687422</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.156716704196196</v>
+        <v>-6.103983876129651</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.334257627115659</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.12790723091729</v>
+        <v>-17.09738027204027</v>
       </c>
       <c r="F54" t="n">
-        <v>2.125378264522532</v>
+        <v>2.061356719600281</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.128639137759503</v>
+        <v>-6.096919261206959</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.599501810372091</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.87601093011323</v>
+        <v>-16.84350881246198</v>
       </c>
       <c r="F55" t="n">
-        <v>2.049984889627837</v>
+        <v>2.006785624951776</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.367276451940489</v>
+        <v>-6.328105728922766</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.820940447952918</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.38388838789643</v>
+        <v>-16.31249910962574</v>
       </c>
       <c r="F56" t="n">
-        <v>2.097320254113308</v>
+        <v>2.043282061213296</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.219134654866099</v>
+        <v>-6.194797178682596</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.991487700699966</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.30208552499921</v>
+        <v>-16.21288070570548</v>
       </c>
       <c r="F57" t="n">
-        <v>2.098439836685831</v>
+        <v>2.080487403470519</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.368772488041765</v>
+        <v>-6.344078114356978</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.108759296441406</v>
       </c>
       <c r="E58" t="n">
-        <v>-16.02505483989234</v>
+        <v>-15.94798942464917</v>
       </c>
       <c r="F58" t="n">
-        <v>2.001231713150961</v>
+        <v>1.950449598824315</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.574316114740603</v>
+        <v>-6.513491980309314</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.169641545172357</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.75373451480603</v>
+        <v>-15.67053828495174</v>
       </c>
       <c r="F59" t="n">
-        <v>2.06585949492471</v>
+        <v>2.013586233503655</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.353161889115706</v>
+        <v>-6.31288625054606</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.173754038025736</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.44931072422384</v>
+        <v>-15.40000997897787</v>
       </c>
       <c r="F60" t="n">
-        <v>2.087288012022398</v>
+        <v>2.076258412530638</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.355601503542296</v>
+        <v>-6.338372643343288</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.123428859450287</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.32851803156297</v>
+        <v>-15.2515406184434</v>
       </c>
       <c r="F61" t="n">
-        <v>2.04460698207423</v>
+        <v>2.010794610582646</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.203964066558062</v>
+        <v>-6.179171912735936</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.022352446425574</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.26125996409482</v>
+        <v>-15.20108606757683</v>
       </c>
       <c r="F62" t="n">
-        <v>2.09397128440947</v>
+        <v>2.042054920489701</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.281669941700808</v>
+        <v>-6.262431699679498</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.875288436270333</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.14815767923561</v>
+        <v>-15.09749290107377</v>
       </c>
       <c r="F63" t="n">
-        <v>2.075759733830212</v>
+        <v>2.004390011586988</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.321065559034409</v>
+        <v>-6.324541642916786</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.688941481749314</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.26115240594375</v>
+        <v>-15.15981796061321</v>
       </c>
       <c r="F64" t="n">
-        <v>1.919282180047733</v>
+        <v>1.855245968104881</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.313800494830173</v>
+        <v>-6.310123961666253</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.470595387961624</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.25249397478245</v>
+        <v>-15.15102752626649</v>
       </c>
       <c r="F65" t="n">
-        <v>1.948332658850941</v>
+        <v>1.86258436741212</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.375514428511241</v>
+        <v>-6.399578120310196</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.226073382686087</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.23166680552939</v>
+        <v>-15.14816256824248</v>
       </c>
       <c r="F66" t="n">
-        <v>1.974459511547735</v>
+        <v>1.915933210343896</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.260564099056336</v>
+        <v>-6.309253718443943</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.964587635842523</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.08125162026188</v>
+        <v>-15.00611736273113</v>
       </c>
       <c r="F67" t="n">
-        <v>1.800894878765387</v>
+        <v>1.723443231979721</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.086310116305754</v>
+        <v>-6.106746165009458</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.692705392727555</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.18549991368511</v>
+        <v>-15.11257059825134</v>
       </c>
       <c r="F68" t="n">
-        <v>1.748284275870515</v>
+        <v>1.687890374043515</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.187698340711836</v>
+        <v>-6.22848243599564</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.415982783438505</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.07225095861989</v>
+        <v>-15.01298152837228</v>
       </c>
       <c r="F69" t="n">
-        <v>1.779578808825638</v>
+        <v>1.688481943874412</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.915698443671022</v>
+        <v>-5.984863223817269</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.143039339999513</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.12277395558259</v>
+        <v>-15.04626588712224</v>
       </c>
       <c r="F70" t="n">
-        <v>1.607495545123966</v>
+        <v>1.558458806248809</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.901275873413623</v>
+        <v>-5.965126303095533</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8768494026965248</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.18794441711857</v>
+        <v>-15.06533301390321</v>
       </c>
       <c r="F71" t="n">
-        <v>1.539073894021491</v>
+        <v>1.464858769781722</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.830292382712885</v>
+        <v>-5.92010832786498</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6225276681276479</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.28828150504826</v>
+        <v>-15.17694904067488</v>
       </c>
       <c r="F72" t="n">
-        <v>1.442119998843701</v>
+        <v>1.382791900513688</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.67822960213123</v>
+        <v>-5.776180854709871</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3845586888200518</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.40174557641562</v>
+        <v>-15.3008364746825</v>
       </c>
       <c r="F73" t="n">
-        <v>1.360229133822875</v>
+        <v>1.304254894203566</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.835997853726576</v>
+        <v>-5.931812610304374</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1626982285969944</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.55872180889853</v>
+        <v>-15.44718400623673</v>
       </c>
       <c r="F74" t="n">
-        <v>1.276235995849276</v>
+        <v>1.194892699597546</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.707201856824568</v>
+        <v>-5.833274676901704</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.03896088280980562</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.75199402836141</v>
+        <v>-15.67050895091054</v>
       </c>
       <c r="F75" t="n">
-        <v>1.167382257957415</v>
+        <v>1.101757118782816</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.718392793542936</v>
+        <v>-5.856976582192507</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2203923896069984</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.78254543227276</v>
+        <v>-15.69365839842538</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9894957431047147</v>
+        <v>0.922853690501797</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.82820966578758</v>
+        <v>-5.96085331109385</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3822733868330765</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.83958547538906</v>
+        <v>-15.77285542066254</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8377703039968762</v>
+        <v>0.7637654070523846</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.728498370736849</v>
+        <v>-5.873623650574353</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.5228046273641456</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.01143406676112</v>
+        <v>-15.92719158943731</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8557227372121878</v>
+        <v>0.7817765083500993</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.692446834100219</v>
+        <v>-5.853989398996823</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.6438296216840762</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.12879467660141</v>
+        <v>-16.03305814413348</v>
       </c>
       <c r="F79" t="n">
-        <v>0.588592291010822</v>
+        <v>0.5018319751505493</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.726518322955749</v>
+        <v>-5.871888053136598</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.7449354598209691</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.62183146310232</v>
+        <v>-16.53754498471671</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5662446406221538</v>
+        <v>0.4873214027695458</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.671580552792226</v>
+        <v>-5.815464024885532</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.825635575161212</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.14674457437551</v>
+        <v>-17.05423967544661</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4142698621641027</v>
+        <v>0.3194720190146218</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.707534309291519</v>
+        <v>-5.880316700975159</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.8871907600727701</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.53538150824031</v>
+        <v>-17.47582851559442</v>
       </c>
       <c r="F82" t="n">
-        <v>0.09023137603184679</v>
+        <v>0.003295055924365184</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.752063383835379</v>
+        <v>-5.915874447918232</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.9289402122558162</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.03389398243216</v>
+        <v>-17.98559548359391</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1088536031879258</v>
+        <v>-0.003534886668714998</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.762017401816419</v>
+        <v>-5.93947368406483</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.9514332656074397</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.89335694460148</v>
+        <v>-18.78398008297485</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01008099745564313</v>
+        <v>-0.08929784512813702</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.765513041726263</v>
+        <v>-5.93665272710262</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.9552067976464729</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.51224165686364</v>
+        <v>-19.45255666103234</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.152874490425499</v>
+        <v>-0.26191889958517</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.860320662889477</v>
+        <v>-6.027681145957709</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.9407897643911699</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.2073606532016</v>
+        <v>-20.13864566168711</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2718484725318743</v>
+        <v>-0.378898166889844</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.047779853187597</v>
+        <v>-6.253377258961971</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.9090201619100924</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.90100805847263</v>
+        <v>-20.87585900714922</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.3854103240365747</v>
+        <v>-0.4840607045971845</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.397197173966008</v>
+        <v>-6.59493794570525</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.8607363131082358</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.73610421041724</v>
+        <v>-21.70608570825438</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4907439769842573</v>
+        <v>-0.6002186187482168</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.650521064775206</v>
+        <v>-6.841720345326516</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7968334992333498</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.7054133788724</v>
+        <v>-22.70009902840806</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7077767698203457</v>
+        <v>-0.8268240870297247</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.650393950596666</v>
+        <v>-6.879458589332232</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7174897309854662</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.79724594841931</v>
+        <v>-23.77864816629757</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9863866041452277</v>
+        <v>-1.09690260437184</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.069332949022608</v>
+        <v>-7.278137543301679</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.6245692577875342</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.04810324432637</v>
+        <v>-25.01761539750429</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9867483906533795</v>
+        <v>-1.070394409139427</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.415552859310058</v>
+        <v>-7.632360757830268</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.5193829553127134</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.25669018686208</v>
+        <v>-26.24899000104669</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.206416358190735</v>
+        <v>-1.298588804652683</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.738119754375372</v>
+        <v>-7.95672191841574</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.4032845826762305</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.54012049101996</v>
+        <v>-27.54079517396759</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.456767732824849</v>
+        <v>-1.559524879153667</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.106301083509003</v>
+        <v>-8.296884349195082</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.279413911099447</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.00337580125327</v>
+        <v>-29.03303251690797</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.753755343962464</v>
+        <v>-1.846211352822693</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.426159468770047</v>
+        <v>-8.628481239943588</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1495519385162646</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.61103770731464</v>
+        <v>-30.63279623237585</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.051970095823675</v>
+        <v>-2.120738866413701</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.771142460320165</v>
+        <v>-8.947112484481035</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01862113387707687</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.39783038047635</v>
+        <v>-32.4551808755287</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.100713494286818</v>
+        <v>-2.172205441701715</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.112903596344989</v>
+        <v>-9.317928988315934</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1086770530286828</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.08282170815172</v>
+        <v>-34.15760395718805</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.495613245948138</v>
+        <v>-2.53462752074612</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.546284721055796</v>
+        <v>-9.740124065315241</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2263034272575775</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.04717088820261</v>
+        <v>-36.14441567928898</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.880255861202672</v>
+        <v>-2.924085807764564</v>
       </c>
       <c r="G98" t="n">
-        <v>-9.962661879883475</v>
+        <v>-10.19473814684906</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.32869065761358</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.07714765193153</v>
+        <v>-38.19924570942587</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.168541040117179</v>
+        <v>-3.190526903997695</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.34216614892088</v>
+        <v>-10.56888406436033</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4073076072404959</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.26335507459616</v>
+        <v>-40.40122751274659</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.55339388266699</v>
+        <v>-3.557378423263525</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.4994357218158</v>
+        <v>-10.7146204700562</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4612201819204076</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.13328530952975</v>
+        <v>-42.30472811333185</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.002576277571667</v>
+        <v>-4.003837641343331</v>
       </c>
       <c r="G101" t="n">
-        <v>-10.78320834739215</v>
+        <v>-11.00305231917671</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4768167739592659</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.3470618419169</v>
+        <v>-44.51710150074821</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.252155189120809</v>
+        <v>-4.23013999119909</v>
       </c>
       <c r="G102" t="n">
-        <v>-10.95695387342857</v>
+        <v>-11.15014786878158</v>
       </c>
     </row>
   </sheetData>
